--- a/Zeus/data/TSP/Problems/master.xlsx
+++ b/Zeus/data/TSP/Problems/master.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\CPSC-464-01.0917\GROUPS\Group 5 - Cuckoo Search\Code\Zeus OS Workspace 2017 1.1\Zeus\data\TSP\Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajp1016\Documents\GitHub\Firefly-Algorithm\Zeus\data\TSP\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>FileName</t>
   </si>
@@ -89,9 +89,6 @@
     <t>d18512</t>
   </si>
   <si>
-    <t>dsj1000</t>
-  </si>
-  <si>
     <t>eil51</t>
   </si>
   <si>
@@ -365,9 +362,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Missing Coordinates</t>
-  </si>
-  <si>
     <t>4 = Reverse Upper_Row</t>
   </si>
   <si>
@@ -378,6 +372,9 @@
   </si>
   <si>
     <t>3 = Diagonal/Full_Matrix</t>
+  </si>
+  <si>
+    <t>EOF</t>
   </si>
 </sst>
 </file>
@@ -695,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +707,7 @@
     <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,270 +715,360 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -989,7 +1076,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -997,7 +1084,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1005,7 +1092,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1013,7 +1100,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1021,7 +1108,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1029,7 +1116,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1037,7 +1124,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1045,7 +1132,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1053,7 +1140,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1061,7 +1148,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1069,7 +1156,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1077,7 +1164,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1085,7 +1172,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1093,7 +1180,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1101,7 +1188,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1109,7 +1196,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1117,7 +1204,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1125,7 +1212,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1133,7 +1220,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1141,7 +1228,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1149,7 +1236,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1157,7 +1244,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1165,7 +1252,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1173,7 +1260,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1181,7 +1268,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1189,7 +1276,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1197,7 +1284,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1205,7 +1292,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1213,7 +1300,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1221,7 +1308,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1229,7 +1316,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1237,7 +1324,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1245,7 +1332,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1253,143 +1340,132 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1397,7 +1473,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1405,7 +1481,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1413,7 +1489,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1421,7 +1497,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1429,7 +1505,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1437,7 +1513,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1445,7 +1521,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1453,7 +1529,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1461,7 +1537,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1469,7 +1545,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1477,7 +1553,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1485,152 +1561,10 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97">
-        <v>4</v>
-      </c>
-      <c r="C97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-      <c r="C101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
